--- a/Ch1_MgmtEffectiveness/BasicData.xlsx
+++ b/Ch1_MgmtEffectiveness/BasicData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dixie\Google Drive\_Ph.D. Forestry\Research\2018.03_EradicationEffectiveness\R Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F8BAC3-1AC0-4247-AEB5-F2E066AA1F2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5219FB45-E493-4B36-A1F1-7A005027C937}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="455">
   <si>
     <t>Plot</t>
   </si>
@@ -1212,6 +1212,204 @@
   </si>
   <si>
     <t>-124.37257</t>
+  </si>
+  <si>
+    <t>HD-4376</t>
+  </si>
+  <si>
+    <t>HD, JL, AC</t>
+  </si>
+  <si>
+    <t>42.29333</t>
+  </si>
+  <si>
+    <t>-124.39407</t>
+  </si>
+  <si>
+    <t>HD-4377</t>
+  </si>
+  <si>
+    <t>15865</t>
+  </si>
+  <si>
+    <t>704</t>
+  </si>
+  <si>
+    <t>42.29337</t>
+  </si>
+  <si>
+    <t>-124.39236</t>
+  </si>
+  <si>
+    <t>HD-4378</t>
+  </si>
+  <si>
+    <t>705</t>
+  </si>
+  <si>
+    <t>42.30084</t>
+  </si>
+  <si>
+    <t>-124.38645</t>
+  </si>
+  <si>
+    <t>HD-4379</t>
+  </si>
+  <si>
+    <t>42.32142</t>
+  </si>
+  <si>
+    <t>-124.40442</t>
+  </si>
+  <si>
+    <t>HD-4380</t>
+  </si>
+  <si>
+    <t>16718</t>
+  </si>
+  <si>
+    <t>736</t>
+  </si>
+  <si>
+    <t>CN, VG, RW</t>
+  </si>
+  <si>
+    <t>42.33895</t>
+  </si>
+  <si>
+    <t>-124.40870</t>
+  </si>
+  <si>
+    <t>HD-4381</t>
+  </si>
+  <si>
+    <t>16802</t>
+  </si>
+  <si>
+    <t>713</t>
+  </si>
+  <si>
+    <t>42.33172</t>
+  </si>
+  <si>
+    <t>-124.39460</t>
+  </si>
+  <si>
+    <t>HD-4382</t>
+  </si>
+  <si>
+    <t>737</t>
+  </si>
+  <si>
+    <t>42.35360</t>
+  </si>
+  <si>
+    <t>-124.40678</t>
+  </si>
+  <si>
+    <t>HD-4383</t>
+  </si>
+  <si>
+    <t>42.29700</t>
+  </si>
+  <si>
+    <t>-124.38137</t>
+  </si>
+  <si>
+    <t>HD-4384</t>
+  </si>
+  <si>
+    <t>42.29542</t>
+  </si>
+  <si>
+    <t>-124.38308</t>
+  </si>
+  <si>
+    <t>HD-4385</t>
+  </si>
+  <si>
+    <t>15984</t>
+  </si>
+  <si>
+    <t>42.31030</t>
+  </si>
+  <si>
+    <t>-124.39847</t>
+  </si>
+  <si>
+    <t>HD-4386</t>
+  </si>
+  <si>
+    <t>16316</t>
+  </si>
+  <si>
+    <t>725</t>
+  </si>
+  <si>
+    <t>42.33622</t>
+  </si>
+  <si>
+    <t>-124.35783</t>
+  </si>
+  <si>
+    <t>HD-4387</t>
+  </si>
+  <si>
+    <t>16613</t>
+  </si>
+  <si>
+    <t>-124.35761</t>
+  </si>
+  <si>
+    <t>HD-4389</t>
+  </si>
+  <si>
+    <t>16626</t>
+  </si>
+  <si>
+    <t>730</t>
+  </si>
+  <si>
+    <t>42.34534</t>
+  </si>
+  <si>
+    <t>-124.41411</t>
+  </si>
+  <si>
+    <t>HD-4390</t>
+  </si>
+  <si>
+    <t>16251</t>
+  </si>
+  <si>
+    <t>42.33229</t>
+  </si>
+  <si>
+    <t>-124.38386</t>
+  </si>
+  <si>
+    <t>HD-4391</t>
+  </si>
+  <si>
+    <t>15966</t>
+  </si>
+  <si>
+    <t>42.32713</t>
+  </si>
+  <si>
+    <t>-124.40679</t>
+  </si>
+  <si>
+    <t>HD-4392</t>
+  </si>
+  <si>
+    <t>15881</t>
+  </si>
+  <si>
+    <t>42.30636</t>
+  </si>
+  <si>
+    <t>-124.40015</t>
   </si>
 </sst>
 </file>
@@ -1273,7 +1471,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -1288,6 +1486,13 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5678,19 +5883,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V75"/>
+  <dimension ref="A1:V89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="Q80" sqref="Q80"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T85" sqref="T85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" style="8" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>312</v>
       </c>
@@ -5703,7 +5908,7 @@
       <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
       <c r="F1" t="s">
@@ -5758,7 +5963,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -5831,7 +6036,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -5904,7 +6109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -5977,7 +6182,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -6050,7 +6255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -6123,7 +6328,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -6196,7 +6401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>329</v>
       </c>
@@ -6269,7 +6474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>334</v>
       </c>
@@ -6342,7 +6547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>338</v>
       </c>
@@ -6415,7 +6620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>343</v>
       </c>
@@ -6488,7 +6693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>347</v>
       </c>
@@ -6561,7 +6766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>351</v>
       </c>
@@ -6634,7 +6839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>356</v>
       </c>
@@ -6707,7 +6912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>360</v>
       </c>
@@ -6780,7 +6985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>364</v>
       </c>
@@ -6853,7 +7058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>46</v>
       </c>
@@ -6926,7 +7131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>53</v>
       </c>
@@ -6999,7 +7204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>58</v>
       </c>
@@ -7072,7 +7277,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>64</v>
       </c>
@@ -7145,7 +7350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>69</v>
       </c>
@@ -7218,7 +7423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>74</v>
       </c>
@@ -7291,7 +7496,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>80</v>
       </c>
@@ -7364,7 +7569,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>84</v>
       </c>
@@ -7437,7 +7642,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>90</v>
       </c>
@@ -7510,7 +7715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>95</v>
       </c>
@@ -7583,7 +7788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>100</v>
       </c>
@@ -7656,7 +7861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>105</v>
       </c>
@@ -7729,7 +7934,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>109</v>
       </c>
@@ -7802,7 +8007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>113</v>
       </c>
@@ -7875,7 +8080,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>119</v>
       </c>
@@ -7948,7 +8153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>126</v>
       </c>
@@ -8021,7 +8226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:22" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>131</v>
       </c>
@@ -8094,7 +8299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:22" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>136</v>
       </c>
@@ -8167,7 +8372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:22" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>141</v>
       </c>
@@ -8240,7 +8445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:22" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>146</v>
       </c>
@@ -8313,7 +8518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:22" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>150</v>
       </c>
@@ -8386,7 +8591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:22" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>156</v>
       </c>
@@ -8459,7 +8664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:22" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>161</v>
       </c>
@@ -8532,7 +8737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:22" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>166</v>
       </c>
@@ -8605,7 +8810,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:22" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>172</v>
       </c>
@@ -8678,7 +8883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:22" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>176</v>
       </c>
@@ -8751,7 +8956,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:22" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>181</v>
       </c>
@@ -8824,7 +9029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:22" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>188</v>
       </c>
@@ -8897,7 +9102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:22" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>191</v>
       </c>
@@ -8970,7 +9175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:22" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>196</v>
       </c>
@@ -9043,7 +9248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:22" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>201</v>
       </c>
@@ -9116,7 +9321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:22" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>207</v>
       </c>
@@ -9169,11 +9374,11 @@
         <v>20</v>
       </c>
       <c r="R48" t="str">
-        <f t="shared" ref="R48:R73" si="10">IF($N48,"1","0")</f>
+        <f t="shared" ref="R48:R89" si="10">IF($N48,"1","0")</f>
         <v>1</v>
       </c>
       <c r="S48" t="str">
-        <f t="shared" ref="S48:S73" si="11">IF($P48,"1","0")</f>
+        <f t="shared" ref="S48:S89" si="11">IF($P48,"1","0")</f>
         <v>0</v>
       </c>
       <c r="T48" t="str">
@@ -9189,7 +9394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:22" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>212</v>
       </c>
@@ -9262,7 +9467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:22" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>217</v>
       </c>
@@ -9335,7 +9540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:22" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>221</v>
       </c>
@@ -9408,7 +9613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:22" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>226</v>
       </c>
@@ -9481,7 +9686,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:22" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>230</v>
       </c>
@@ -9554,7 +9759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:22" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>235</v>
       </c>
@@ -9627,7 +9832,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:22" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>239</v>
       </c>
@@ -9700,7 +9905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:22" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>244</v>
       </c>
@@ -9773,7 +9978,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:22" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>248</v>
       </c>
@@ -9846,7 +10051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:22" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>254</v>
       </c>
@@ -9919,7 +10124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:22" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>259</v>
       </c>
@@ -9992,7 +10197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:22" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>264</v>
       </c>
@@ -10065,7 +10270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:22" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>269</v>
       </c>
@@ -10138,7 +10343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:22" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>274</v>
       </c>
@@ -10211,7 +10416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:22" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>278</v>
       </c>
@@ -10284,7 +10489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:22" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>283</v>
       </c>
@@ -10357,7 +10562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:22" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>287</v>
       </c>
@@ -10430,7 +10635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:22" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>292</v>
       </c>
@@ -10503,7 +10708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:22" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>297</v>
       </c>
@@ -10576,7 +10781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:22" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>301</v>
       </c>
@@ -10649,7 +10854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:22" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>305</v>
       </c>
@@ -10722,7 +10927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:22" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:22" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
         <v>368</v>
       </c>
@@ -10795,7 +11000,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="71" spans="1:22" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:22" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
         <v>374</v>
       </c>
@@ -10868,7 +11073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:22" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:22" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
         <v>379</v>
       </c>
@@ -10941,7 +11146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:22" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:22" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
         <v>384</v>
       </c>
@@ -11014,10 +11219,1176 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:22" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="75" spans="1:22" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" spans="1:22" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E74" s="9">
+        <v>43859</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H74" s="5">
+        <v>0</v>
+      </c>
+      <c r="I74" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="J74" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="K74" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="L74" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="M74" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="N74" s="7">
+        <v>0</v>
+      </c>
+      <c r="O74" s="5">
+        <v>5</v>
+      </c>
+      <c r="P74" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="5">
+        <v>20</v>
+      </c>
+      <c r="R74" t="str">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="S74" t="str">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T74" t="str">
+        <f t="shared" ref="T74:T89" si="16">IF(AND(I74="None", G74="None"),"0","1")</f>
+        <v>1</v>
+      </c>
+      <c r="U74">
+        <f t="shared" ref="U74:U89" si="17">N74/O74</f>
+        <v>0</v>
+      </c>
+      <c r="V74">
+        <f t="shared" ref="V74:V89" si="18">P74/Q74</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E75" s="9">
+        <v>43859</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H75" s="5">
+        <v>0</v>
+      </c>
+      <c r="I75" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="J75" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="K75" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="L75" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="M75" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="N75" s="7">
+        <v>0</v>
+      </c>
+      <c r="O75" s="5">
+        <v>5</v>
+      </c>
+      <c r="P75" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="5">
+        <v>20</v>
+      </c>
+      <c r="R75" t="str">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="S75" t="str">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T75" t="str">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="U75">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="V75">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E76" s="9">
+        <v>43859</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H76" s="5">
+        <v>0</v>
+      </c>
+      <c r="I76" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="J76" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="K76" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="L76" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="M76" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="N76" s="7">
+        <v>0</v>
+      </c>
+      <c r="O76" s="5">
+        <v>5</v>
+      </c>
+      <c r="P76" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="5">
+        <v>20</v>
+      </c>
+      <c r="R76" t="str">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="S76" t="str">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T76" t="str">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="U76">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="V76">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E77" s="9">
+        <v>43859</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H77" s="5">
+        <v>0</v>
+      </c>
+      <c r="I77" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="J77" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="K77" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="L77" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="M77" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="N77" s="7">
+        <v>5</v>
+      </c>
+      <c r="O77" s="5">
+        <v>5</v>
+      </c>
+      <c r="P77" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q77" s="5">
+        <v>20</v>
+      </c>
+      <c r="R77" t="str">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="S77" t="str">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="T77" t="str">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="U77">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="V77">
+        <f t="shared" si="18"/>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E78" s="9">
+        <v>43859</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H78" s="5">
+        <v>0</v>
+      </c>
+      <c r="I78" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="J78" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="K78" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="L78" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="M78" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="N78" s="7">
+        <v>1</v>
+      </c>
+      <c r="O78" s="5">
+        <v>5</v>
+      </c>
+      <c r="P78" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q78" s="5">
+        <v>20</v>
+      </c>
+      <c r="R78" t="str">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="S78" t="str">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="T78" t="str">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="U78">
+        <f t="shared" si="17"/>
+        <v>0.2</v>
+      </c>
+      <c r="V78">
+        <f t="shared" si="18"/>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E79" s="9">
+        <v>43859</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H79" s="5">
+        <v>0</v>
+      </c>
+      <c r="I79" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="J79" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="K79" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="L79" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="M79" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="N79" s="7">
+        <v>0</v>
+      </c>
+      <c r="O79" s="5">
+        <v>5</v>
+      </c>
+      <c r="P79" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q79" s="5">
+        <v>20</v>
+      </c>
+      <c r="R79" t="str">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="S79" t="str">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T79" t="str">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="U79">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="V79">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E80" s="9">
+        <v>43859</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="G80" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H80" s="5">
+        <v>0</v>
+      </c>
+      <c r="I80" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="J80" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="K80" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="L80" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="M80" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="N80" s="7">
+        <v>0</v>
+      </c>
+      <c r="O80" s="5">
+        <v>5</v>
+      </c>
+      <c r="P80" s="5">
+        <v>2</v>
+      </c>
+      <c r="Q80" s="5">
+        <v>20</v>
+      </c>
+      <c r="R80" t="str">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="S80" t="str">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="T80" t="str">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="U80">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="V80">
+        <f t="shared" si="18"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E81" s="9">
+        <v>43860</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="G81" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H81" s="5">
+        <v>0</v>
+      </c>
+      <c r="I81" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="J81" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="K81" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="L81" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M81" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="N81" s="7">
+        <v>0</v>
+      </c>
+      <c r="O81" s="5">
+        <v>5</v>
+      </c>
+      <c r="P81" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="5">
+        <v>20</v>
+      </c>
+      <c r="R81" t="str">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="S81" t="str">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T81" t="str">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="U81">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="V81">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E82" s="9">
+        <v>43860</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="G82" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H82" s="5">
+        <v>0</v>
+      </c>
+      <c r="I82" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="J82" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="K82" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="L82" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M82" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="N82" s="7">
+        <v>0</v>
+      </c>
+      <c r="O82" s="5">
+        <v>5</v>
+      </c>
+      <c r="P82" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q82" s="5">
+        <v>20</v>
+      </c>
+      <c r="R82" t="str">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="S82" t="str">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T82" t="str">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="U82">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="V82">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E83" s="9">
+        <v>43860</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="G83" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H83" s="5">
+        <v>0</v>
+      </c>
+      <c r="I83" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="J83" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="K83" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="L83" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M83" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="N83" s="7">
+        <v>0</v>
+      </c>
+      <c r="O83" s="5">
+        <v>5</v>
+      </c>
+      <c r="P83" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="5">
+        <v>20</v>
+      </c>
+      <c r="R83" t="str">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="S83" t="str">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T83" t="str">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="U83">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="V83">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E84" s="9">
+        <v>43860</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="G84" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H84" s="5">
+        <v>0</v>
+      </c>
+      <c r="I84" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="J84" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="K84" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="L84" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="M84" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="N84" s="7">
+        <v>1</v>
+      </c>
+      <c r="O84" s="5">
+        <v>5</v>
+      </c>
+      <c r="P84" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="5">
+        <v>20</v>
+      </c>
+      <c r="R84" t="str">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="S84" t="str">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T84" t="str">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="U84">
+        <f t="shared" si="17"/>
+        <v>0.2</v>
+      </c>
+      <c r="V84">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E85" s="9">
+        <v>43860</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="G85" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H85" s="5">
+        <v>0</v>
+      </c>
+      <c r="I85" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="J85" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="K85" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="L85" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="M85" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="N85" s="7">
+        <v>3</v>
+      </c>
+      <c r="O85" s="5">
+        <v>5</v>
+      </c>
+      <c r="P85" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q85" s="5">
+        <v>20</v>
+      </c>
+      <c r="R85" t="str">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="S85" t="str">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="T85" t="str">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="U85">
+        <f t="shared" si="17"/>
+        <v>0.6</v>
+      </c>
+      <c r="V85">
+        <f t="shared" si="18"/>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E86" s="9">
+        <v>43860</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="G86" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H86" s="5">
+        <v>0</v>
+      </c>
+      <c r="I86" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="J86" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="K86" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="L86" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="M86" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="N86" s="7">
+        <v>0</v>
+      </c>
+      <c r="O86" s="5">
+        <v>5</v>
+      </c>
+      <c r="P86" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="5">
+        <v>20</v>
+      </c>
+      <c r="R86" t="str">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="S86" t="str">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T86" t="str">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="U86">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="V86">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E87" s="9">
+        <v>43860</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="G87" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H87" s="5">
+        <v>0</v>
+      </c>
+      <c r="I87" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="J87" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="K87" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="L87" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="M87" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="N87" s="7">
+        <v>1</v>
+      </c>
+      <c r="O87" s="5">
+        <v>5</v>
+      </c>
+      <c r="P87" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="5">
+        <v>20</v>
+      </c>
+      <c r="R87" t="str">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="S87" t="str">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T87" t="str">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="U87">
+        <f t="shared" si="17"/>
+        <v>0.2</v>
+      </c>
+      <c r="V87">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E88" s="9">
+        <v>43860</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="G88" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H88" s="5">
+        <v>0</v>
+      </c>
+      <c r="I88" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="J88" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="K88" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="L88" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="M88" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="N88" s="7">
+        <v>0</v>
+      </c>
+      <c r="O88" s="5">
+        <v>5</v>
+      </c>
+      <c r="P88" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="5">
+        <v>20</v>
+      </c>
+      <c r="R88" t="str">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="S88" t="str">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T88" t="str">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="U88">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="V88">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E89" s="9">
+        <v>43860</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="G89" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H89" s="5">
+        <v>0</v>
+      </c>
+      <c r="I89" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="J89" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="K89" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="L89" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="M89" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="N89" s="7">
+        <v>0</v>
+      </c>
+      <c r="O89" s="5">
+        <v>5</v>
+      </c>
+      <c r="P89" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="5">
+        <v>20</v>
+      </c>
+      <c r="R89" t="str">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="S89" t="str">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T89" t="str">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="U89">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="V89">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V69">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W69">
     <sortCondition ref="A2:A69"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Ch1_MgmtEffectiveness/BasicData.xlsx
+++ b/Ch1_MgmtEffectiveness/BasicData.xlsx
@@ -8,16 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hazel\Documents\GitHub\SOD_PhD\Ch1_MgmtEffectiveness\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54744AF5-3CF7-4246-A124-7995C5C478E3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC7F8AC-40E1-4CAE-89EB-4A73EFAEF2A8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SOD_Erad_Basic_Data" sheetId="1" r:id="rId1"/>
     <sheet name="Shrub_Seed" sheetId="2" r:id="rId2"/>
     <sheet name="Tanoak" sheetId="3" r:id="rId3"/>
+    <sheet name="Wildfire" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Wildfire!$A$1:$G$101</definedName>
+    <definedName name="SOD_Erad_Basic_Data" localSheetId="3">Wildfire!$A$1:$F$101</definedName>
     <definedName name="SOD_Erad_Basic_Data">SOD_Erad_Basic_Data!$A$1:$U$101</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1688" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1995" uniqueCount="600">
   <si>
     <t>New Site</t>
   </si>
@@ -2308,7 +2311,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="Q71" sqref="Q71"/>
     </sheetView>
   </sheetViews>
@@ -29524,4 +29527,2343 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B3F3BDA-C12B-4477-BCFC-DAD6A2FC8E90}">
+  <dimension ref="A1:G101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>540</v>
+      </c>
+      <c r="E1" t="s">
+        <v>537</v>
+      </c>
+      <c r="F1" t="s">
+        <v>538</v>
+      </c>
+      <c r="G1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>107</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>113</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>118</v>
+      </c>
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>125</v>
+      </c>
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>131</v>
+      </c>
+      <c r="B22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>136</v>
+      </c>
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>143</v>
+      </c>
+      <c r="B24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>148</v>
+      </c>
+      <c r="B25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>153</v>
+      </c>
+      <c r="B26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>159</v>
+      </c>
+      <c r="B27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>165</v>
+      </c>
+      <c r="B28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>170</v>
+      </c>
+      <c r="B29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>175</v>
+      </c>
+      <c r="B30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>180</v>
+      </c>
+      <c r="B31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>186</v>
+      </c>
+      <c r="B32" t="s">
+        <v>190</v>
+      </c>
+      <c r="C32" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>194</v>
+      </c>
+      <c r="B33" t="s">
+        <v>190</v>
+      </c>
+      <c r="C33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>200</v>
+      </c>
+      <c r="B34" t="s">
+        <v>190</v>
+      </c>
+      <c r="C34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>207</v>
+      </c>
+      <c r="B35" t="s">
+        <v>190</v>
+      </c>
+      <c r="C35" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>212</v>
+      </c>
+      <c r="B36" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>218</v>
+      </c>
+      <c r="B37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>222</v>
+      </c>
+      <c r="B38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" t="s">
+        <v>225</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>230</v>
+      </c>
+      <c r="B39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>235</v>
+      </c>
+      <c r="B40" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" t="s">
+        <v>225</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>240</v>
+      </c>
+      <c r="B41" t="s">
+        <v>190</v>
+      </c>
+      <c r="C41" t="s">
+        <v>225</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>247</v>
+      </c>
+      <c r="B42" t="s">
+        <v>190</v>
+      </c>
+      <c r="C42" t="s">
+        <v>225</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>251</v>
+      </c>
+      <c r="B43" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>256</v>
+      </c>
+      <c r="B44" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" t="s">
+        <v>260</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>263</v>
+      </c>
+      <c r="B45" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>266</v>
+      </c>
+      <c r="B46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>272</v>
+      </c>
+      <c r="B47" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>277</v>
+      </c>
+      <c r="B48" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>283</v>
+      </c>
+      <c r="B49" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>288</v>
+      </c>
+      <c r="B50" t="s">
+        <v>45</v>
+      </c>
+      <c r="C50" t="s">
+        <v>225</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>293</v>
+      </c>
+      <c r="B51" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>297</v>
+      </c>
+      <c r="B52" t="s">
+        <v>17</v>
+      </c>
+      <c r="C52" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>302</v>
+      </c>
+      <c r="B53" t="s">
+        <v>17</v>
+      </c>
+      <c r="C53" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>306</v>
+      </c>
+      <c r="B54" t="s">
+        <v>17</v>
+      </c>
+      <c r="C54" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>311</v>
+      </c>
+      <c r="B55" t="s">
+        <v>17</v>
+      </c>
+      <c r="C55" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>316</v>
+      </c>
+      <c r="B56" t="s">
+        <v>190</v>
+      </c>
+      <c r="C56" t="s">
+        <v>225</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>321</v>
+      </c>
+      <c r="B57" t="s">
+        <v>190</v>
+      </c>
+      <c r="C57" t="s">
+        <v>225</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>325</v>
+      </c>
+      <c r="B58" t="s">
+        <v>17</v>
+      </c>
+      <c r="C58" t="s">
+        <v>225</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>332</v>
+      </c>
+      <c r="B59" t="s">
+        <v>17</v>
+      </c>
+      <c r="C59" t="s">
+        <v>225</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>337</v>
+      </c>
+      <c r="B60" t="s">
+        <v>190</v>
+      </c>
+      <c r="C60" t="s">
+        <v>225</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>343</v>
+      </c>
+      <c r="B61" t="s">
+        <v>190</v>
+      </c>
+      <c r="C61" t="s">
+        <v>225</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>349</v>
+      </c>
+      <c r="B62" t="s">
+        <v>190</v>
+      </c>
+      <c r="C62" t="s">
+        <v>32</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>354</v>
+      </c>
+      <c r="B63" t="s">
+        <v>190</v>
+      </c>
+      <c r="C63" t="s">
+        <v>32</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>358</v>
+      </c>
+      <c r="B64" t="s">
+        <v>190</v>
+      </c>
+      <c r="C64" t="s">
+        <v>32</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>363</v>
+      </c>
+      <c r="B65" t="s">
+        <v>190</v>
+      </c>
+      <c r="C65" t="s">
+        <v>32</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>367</v>
+      </c>
+      <c r="B66" t="s">
+        <v>190</v>
+      </c>
+      <c r="C66" t="s">
+        <v>225</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>372</v>
+      </c>
+      <c r="B67" t="s">
+        <v>190</v>
+      </c>
+      <c r="C67" t="s">
+        <v>190</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>377</v>
+      </c>
+      <c r="B68" t="s">
+        <v>190</v>
+      </c>
+      <c r="C68" t="s">
+        <v>225</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>382</v>
+      </c>
+      <c r="B69" t="s">
+        <v>190</v>
+      </c>
+      <c r="C69" t="s">
+        <v>225</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>386</v>
+      </c>
+      <c r="B70" t="s">
+        <v>389</v>
+      </c>
+      <c r="C70" t="s">
+        <v>225</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="9" t="s">
+        <v>576</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71" s="10">
+        <v>0</v>
+      </c>
+      <c r="G71" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="9" t="s">
+        <v>577</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72" s="10">
+        <v>0</v>
+      </c>
+      <c r="G72" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>392</v>
+      </c>
+      <c r="B73" t="s">
+        <v>17</v>
+      </c>
+      <c r="C73" t="s">
+        <v>17</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>399</v>
+      </c>
+      <c r="B74" t="s">
+        <v>17</v>
+      </c>
+      <c r="C74" t="s">
+        <v>17</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>404</v>
+      </c>
+      <c r="B75" t="s">
+        <v>17</v>
+      </c>
+      <c r="C75" t="s">
+        <v>17</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>410</v>
+      </c>
+      <c r="B76" t="s">
+        <v>17</v>
+      </c>
+      <c r="C76" t="s">
+        <v>17</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>415</v>
+      </c>
+      <c r="B77" t="s">
+        <v>45</v>
+      </c>
+      <c r="C77" t="s">
+        <v>225</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>419</v>
+      </c>
+      <c r="B78" t="s">
+        <v>45</v>
+      </c>
+      <c r="C78" t="s">
+        <v>225</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>424</v>
+      </c>
+      <c r="B79" t="s">
+        <v>45</v>
+      </c>
+      <c r="C79" t="s">
+        <v>225</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>427</v>
+      </c>
+      <c r="B80" t="s">
+        <v>45</v>
+      </c>
+      <c r="C80" t="s">
+        <v>225</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>430</v>
+      </c>
+      <c r="B81" t="s">
+        <v>45</v>
+      </c>
+      <c r="C81" t="s">
+        <v>225</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>436</v>
+      </c>
+      <c r="B82" t="s">
+        <v>45</v>
+      </c>
+      <c r="C82" t="s">
+        <v>225</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>441</v>
+      </c>
+      <c r="B83" t="s">
+        <v>45</v>
+      </c>
+      <c r="C83" t="s">
+        <v>225</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>444</v>
+      </c>
+      <c r="B84" t="s">
+        <v>45</v>
+      </c>
+      <c r="C84" t="s">
+        <v>225</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>447</v>
+      </c>
+      <c r="B85" t="s">
+        <v>45</v>
+      </c>
+      <c r="C85" t="s">
+        <v>225</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>450</v>
+      </c>
+      <c r="B86" t="s">
+        <v>45</v>
+      </c>
+      <c r="C86" t="s">
+        <v>225</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>455</v>
+      </c>
+      <c r="B87" t="s">
+        <v>45</v>
+      </c>
+      <c r="C87" t="s">
+        <v>225</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>461</v>
+      </c>
+      <c r="B88" t="s">
+        <v>45</v>
+      </c>
+      <c r="C88" t="s">
+        <v>225</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>465</v>
+      </c>
+      <c r="B89" t="s">
+        <v>45</v>
+      </c>
+      <c r="C89" t="s">
+        <v>225</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>470</v>
+      </c>
+      <c r="B90" t="s">
+        <v>45</v>
+      </c>
+      <c r="C90" t="s">
+        <v>225</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>475</v>
+      </c>
+      <c r="B91" t="s">
+        <v>45</v>
+      </c>
+      <c r="C91" t="s">
+        <v>225</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>479</v>
+      </c>
+      <c r="B92" t="s">
+        <v>45</v>
+      </c>
+      <c r="C92" t="s">
+        <v>225</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>483</v>
+      </c>
+      <c r="B93" t="s">
+        <v>45</v>
+      </c>
+      <c r="C93" t="s">
+        <v>225</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>488</v>
+      </c>
+      <c r="B94" t="s">
+        <v>17</v>
+      </c>
+      <c r="C94" t="s">
+        <v>17</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>494</v>
+      </c>
+      <c r="B95" t="s">
+        <v>17</v>
+      </c>
+      <c r="C95" t="s">
+        <v>17</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>1</v>
+      </c>
+      <c r="G95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>500</v>
+      </c>
+      <c r="B96" t="s">
+        <v>17</v>
+      </c>
+      <c r="C96" t="s">
+        <v>17</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>1</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>506</v>
+      </c>
+      <c r="B97" t="s">
+        <v>45</v>
+      </c>
+      <c r="C97" t="s">
+        <v>225</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+      <c r="F97">
+        <v>1</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>511</v>
+      </c>
+      <c r="B98" t="s">
+        <v>45</v>
+      </c>
+      <c r="C98" t="s">
+        <v>225</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>515</v>
+      </c>
+      <c r="B99" t="s">
+        <v>45</v>
+      </c>
+      <c r="C99" t="s">
+        <v>225</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>518</v>
+      </c>
+      <c r="B100" t="s">
+        <v>45</v>
+      </c>
+      <c r="C100" t="s">
+        <v>225</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>522</v>
+      </c>
+      <c r="B101" t="s">
+        <v>17</v>
+      </c>
+      <c r="C101" t="s">
+        <v>17</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>1</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G101" xr:uid="{11F775E5-C854-4047-A957-4DFB7E3F24B7}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>